--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,24 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,6 +963,24 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,24 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,6 +999,24 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19:29</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,6 +1017,78 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21:24</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,96 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15:34</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20:52</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12:53</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,6 +1179,60 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20:58</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12:37</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1233,60 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22:01</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20:23</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,6 +1287,24 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +1305,24 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/protetor_natura.xlsx
+++ b/assets/protetor_natura.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,6 +1323,42 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>natura</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
